--- a/src/test/resources/testdata/register.xlsx
+++ b/src/test/resources/testdata/register.xlsx
@@ -475,11 +475,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>

--- a/src/test/resources/testdata/register.xlsx
+++ b/src/test/resources/testdata/register.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
